--- a/output/start_end_time_df.xlsx
+++ b/output/start_end_time_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output/start_end_time_df.xlsx
+++ b/output/start_end_time_df.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bungalowpark, De West</t>
+          <t xml:space="preserve"> Educalaan, 41</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -769,7 +769,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bungalowpark, De West</t>
+          <t xml:space="preserve"> Educalaan, 41</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bungalowpark, De West</t>
+          <t xml:space="preserve"> Educalaan, 41</t>
         </is>
       </c>
       <c r="C794" t="n">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Teigar, Hofteigur</t>
+          <t xml:space="preserve"> Hofteigur, 21</t>
         </is>
       </c>
       <c r="C838" t="n">
@@ -16463,7 +16463,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bungalowpark, De West</t>
+          <t xml:space="preserve"> Educalaan, 41</t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -18135,7 +18135,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bungalowpark, De West</t>
+          <t xml:space="preserve"> Educalaan, 41</t>
         </is>
       </c>
       <c r="C932" t="n">
@@ -19855,7 +19855,7 @@
         <v>45125.65737770833</v>
       </c>
       <c r="E1022" s="2" t="n">
-        <v>45126.50472457176</v>
+        <v>45125.94425520833</v>
       </c>
     </row>
   </sheetData>
